--- a/biology/Médecine/Odds_ratio/Odds_ratio.xlsx
+++ b/biology/Médecine/Odds_ratio/Odds_ratio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’odds ratio (OR), également appelé rapport des chances, rapport de chances, rapport des cotes[1] ou risque relatif rapproché[2], est une mesure statistique, souvent utilisée en épidémiologie, exprimant le degré de dépendance entre des variables aléatoires qualitatives. Il est utilisé en inférence bayésienne et en régression logistique, et permet de mesurer l'effet d'un facteur.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’odds ratio (OR), également appelé rapport des chances, rapport de chances, rapport des cotes ou risque relatif rapproché, est une mesure statistique, souvent utilisée en épidémiologie, exprimant le degré de dépendance entre des variables aléatoires qualitatives. Il est utilisé en inférence bayésienne et en régression logistique, et permet de mesurer l'effet d'un facteur.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’odds ratio se définit comme le rapport de la cote d'un événement arrivant à un groupe A d'individus, par exemple une maladie, avec celle du même événement arrivant à un groupe B d'individus. Les cotes sont à entendre comme celle d'un cheval de course dans un grand prix : un cheval à 3 contre 1 a une chance sur 4 de gagner.
 L’odds ratio est proche du risque relatif lorsque le nombre d’événements est faible. En d'autres termes, si 
@@ -594,7 +608,9 @@
           <t>Interprétation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Un odds ratio :
 &lt; 1 signifie que l'événement est moins fréquent dans le groupe A que dans le groupe B ;
@@ -627,7 +643,9 @@
           <t>Exemple</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Considérons l'exemple factice suivant. Soit A un échantillon de 100 individus avec des chapeaux bleus ayant bu au moins un verre de vin la semaine en cours, 90 en ont bu également la semaine précédente. Soit B un échantillon de 100 individus avec des chapeaux orange ayant bu au moins un verre de vin la semaine en cours, 20 en ont bu également la semaine précédente. L'odds ratio A/B est donc de 36:
               0.9
@@ -678,7 +696,9 @@
           <t>Régression logistique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On utilise souvent en régression logistique le logarithme de l'odds ratio, plutôt sous la forme d'une différence des logits des probabilités des groupes à comparer, en remarquant que :
         ln
